--- a/data/excel_files/players_data.xlsx
+++ b/data/excel_files/players_data.xlsx
@@ -1500,13 +1500,13 @@
         <v>1592.9</v>
       </c>
       <c r="BX2" t="n">
-        <v>1847</v>
+        <v>1846.8</v>
       </c>
       <c r="BY2" t="n">
         <v>9</v>
       </c>
       <c r="BZ2" t="n">
-        <v>1768.5</v>
+        <v>1768.6</v>
       </c>
       <c r="CA2" t="n">
         <v>1732.1</v>
@@ -1737,13 +1737,13 @@
         <v>106.19334</v>
       </c>
       <c r="EY2" t="n">
-        <v>123.13333</v>
+        <v>123.12</v>
       </c>
       <c r="EZ2" t="n">
         <v>0.6</v>
       </c>
       <c r="FA2" t="n">
-        <v>117.9</v>
+        <v>117.90666</v>
       </c>
       <c r="FB2" t="n">
         <v>115.473335</v>
@@ -3544,13 +3544,13 @@
         <v>1659.1</v>
       </c>
       <c r="BX6" t="n">
-        <v>1841.4</v>
+        <v>1841.6</v>
       </c>
       <c r="BY6" t="n">
         <v>12</v>
       </c>
       <c r="BZ6" t="n">
-        <v>1912.1</v>
+        <v>1912</v>
       </c>
       <c r="CA6" t="n">
         <v>1617.9</v>
@@ -3781,13 +3781,13 @@
         <v>110.60667</v>
       </c>
       <c r="EY6" t="n">
-        <v>122.76</v>
+        <v>122.77333</v>
       </c>
       <c r="EZ6" t="n">
         <v>0.8</v>
       </c>
       <c r="FA6" t="n">
-        <v>127.473335</v>
+        <v>127.46667</v>
       </c>
       <c r="FB6" t="n">
         <v>107.86</v>
@@ -7118,16 +7118,16 @@
         <v>1577.2498</v>
       </c>
       <c r="BW13" t="n">
-        <v>1753.1998</v>
+        <v>1753.4999</v>
       </c>
       <c r="BX13" t="n">
-        <v>1574.7999</v>
+        <v>1574.9999</v>
       </c>
       <c r="BY13" t="n">
         <v>10</v>
       </c>
       <c r="BZ13" t="n">
-        <v>1437.2001</v>
+        <v>1437.3</v>
       </c>
       <c r="CA13" t="n">
         <v>1801.1001</v>
@@ -7355,16 +7355,16 @@
         <v>105.14999</v>
       </c>
       <c r="EX13" t="n">
-        <v>116.87999</v>
+        <v>116.899994</v>
       </c>
       <c r="EY13" t="n">
-        <v>104.986664</v>
+        <v>104.99999</v>
       </c>
       <c r="EZ13" t="n">
         <v>0.6666666999999999</v>
       </c>
       <c r="FA13" t="n">
-        <v>95.81334</v>
+        <v>95.81999999999999</v>
       </c>
       <c r="FB13" t="n">
         <v>120.07334</v>
@@ -12228,16 +12228,16 @@
         <v>1664.3899</v>
       </c>
       <c r="BW23" t="n">
-        <v>1551.6001</v>
+        <v>1551.3</v>
       </c>
       <c r="BX23" t="n">
-        <v>1799.5001</v>
+        <v>1799.3002</v>
       </c>
       <c r="BY23" t="n">
         <v>8</v>
       </c>
       <c r="BZ23" t="n">
-        <v>1715</v>
+        <v>1714.9</v>
       </c>
       <c r="CA23" t="n">
         <v>1676.1</v>
@@ -12465,16 +12465,16 @@
         <v>110.95933</v>
       </c>
       <c r="EX23" t="n">
-        <v>103.44001</v>
+        <v>103.420006</v>
       </c>
       <c r="EY23" t="n">
-        <v>119.966675</v>
+        <v>119.95335</v>
       </c>
       <c r="EZ23" t="n">
         <v>0.53333336</v>
       </c>
       <c r="FA23" t="n">
-        <v>114.333336</v>
+        <v>114.32667</v>
       </c>
       <c r="FB23" t="n">
         <v>111.74</v>

--- a/data/excel_files/players_data.xlsx
+++ b/data/excel_files/players_data.xlsx
@@ -3033,7 +3033,7 @@
         <v>1573.7</v>
       </c>
       <c r="BX5" t="n">
-        <v>1563.5999</v>
+        <v>1563.6998</v>
       </c>
       <c r="BY5" t="n">
         <v>15</v>
@@ -3042,7 +3042,7 @@
         <v>1473.2999</v>
       </c>
       <c r="CA5" t="n">
-        <v>1615.2001</v>
+        <v>1615.1</v>
       </c>
       <c r="CB5" t="n">
         <v>45.66298</v>
@@ -3270,7 +3270,7 @@
         <v>112.40714</v>
       </c>
       <c r="EY5" t="n">
-        <v>111.68571</v>
+        <v>111.69285</v>
       </c>
       <c r="EZ5" t="n">
         <v>1.0714285</v>
@@ -3279,7 +3279,7 @@
         <v>105.23571</v>
       </c>
       <c r="FB5" t="n">
-        <v>115.37144</v>
+        <v>115.36428</v>
       </c>
       <c r="FC5" t="n">
         <v>45.66298</v>
@@ -4563,7 +4563,7 @@
         <v>1139.36</v>
       </c>
       <c r="BW8" t="n">
-        <v>1435.9</v>
+        <v>1436</v>
       </c>
       <c r="BX8" t="n">
         <v>1322.5</v>
@@ -4572,7 +4572,7 @@
         <v>12</v>
       </c>
       <c r="BZ8" t="n">
-        <v>1558.2</v>
+        <v>1558.0999</v>
       </c>
       <c r="CA8" t="n">
         <v>1273.2001</v>
@@ -4800,7 +4800,7 @@
         <v>94.94665999999999</v>
       </c>
       <c r="EX8" t="n">
-        <v>119.65833</v>
+        <v>119.666664</v>
       </c>
       <c r="EY8" t="n">
         <v>110.208336</v>
@@ -4809,7 +4809,7 @@
         <v>1</v>
       </c>
       <c r="FA8" t="n">
-        <v>129.84999</v>
+        <v>129.84166</v>
       </c>
       <c r="FB8" t="n">
         <v>106.100006</v>
@@ -7629,19 +7629,19 @@
         <v>1287.59</v>
       </c>
       <c r="BW14" t="n">
-        <v>1516.5</v>
+        <v>1516.3</v>
       </c>
       <c r="BX14" t="n">
-        <v>1448.4</v>
+        <v>1448.2</v>
       </c>
       <c r="BY14" t="n">
         <v>18</v>
       </c>
       <c r="BZ14" t="n">
-        <v>1422.3999</v>
+        <v>1422.2</v>
       </c>
       <c r="CA14" t="n">
-        <v>1523.8</v>
+        <v>1523.6001</v>
       </c>
       <c r="CB14" t="n">
         <v>50.101086</v>
@@ -7866,19 +7866,19 @@
         <v>107.299164</v>
       </c>
       <c r="EX14" t="n">
-        <v>126.375</v>
+        <v>126.35834</v>
       </c>
       <c r="EY14" t="n">
-        <v>120.700005</v>
+        <v>120.68333</v>
       </c>
       <c r="EZ14" t="n">
         <v>1.5</v>
       </c>
       <c r="FA14" t="n">
-        <v>118.533325</v>
+        <v>118.51666</v>
       </c>
       <c r="FB14" t="n">
-        <v>126.98334</v>
+        <v>126.966675</v>
       </c>
       <c r="FC14" t="n">
         <v>50.101086</v>
@@ -8651,19 +8651,19 @@
         <v>1252.6299</v>
       </c>
       <c r="BW16" t="n">
-        <v>1367</v>
+        <v>1367.2001</v>
       </c>
       <c r="BX16" t="n">
-        <v>1381.4</v>
+        <v>1381.6</v>
       </c>
       <c r="BY16" t="n">
         <v>11</v>
       </c>
       <c r="BZ16" t="n">
-        <v>1517.7001</v>
+        <v>1517.9001</v>
       </c>
       <c r="CA16" t="n">
-        <v>1211.4999</v>
+        <v>1211.7</v>
       </c>
       <c r="CB16" t="n">
         <v>49.389214</v>
@@ -8888,19 +8888,19 @@
         <v>104.385826</v>
       </c>
       <c r="EX16" t="n">
-        <v>113.916664</v>
+        <v>113.93334</v>
       </c>
       <c r="EY16" t="n">
-        <v>115.11667</v>
+        <v>115.13333</v>
       </c>
       <c r="EZ16" t="n">
         <v>0.9166666999999999</v>
       </c>
       <c r="FA16" t="n">
-        <v>126.475006</v>
+        <v>126.49168</v>
       </c>
       <c r="FB16" t="n">
-        <v>100.95832</v>
+        <v>100.975</v>
       </c>
       <c r="FC16" t="n">
         <v>49.389214</v>
@@ -10184,7 +10184,7 @@
         <v>1277.9</v>
       </c>
       <c r="BW19" t="n">
-        <v>1304.2001</v>
+        <v>1304.1001</v>
       </c>
       <c r="BX19" t="n">
         <v>1438.2001</v>
@@ -10193,7 +10193,7 @@
         <v>8</v>
       </c>
       <c r="BZ19" t="n">
-        <v>1328.6001</v>
+        <v>1328.7</v>
       </c>
       <c r="CA19" t="n">
         <v>1434</v>
@@ -10421,7 +10421,7 @@
         <v>106.49167</v>
       </c>
       <c r="EX19" t="n">
-        <v>108.68334</v>
+        <v>108.67501</v>
       </c>
       <c r="EY19" t="n">
         <v>119.850006</v>
@@ -10430,7 +10430,7 @@
         <v>0.6666666999999999</v>
       </c>
       <c r="FA19" t="n">
-        <v>110.716675</v>
+        <v>110.725</v>
       </c>
       <c r="FB19" t="n">
         <v>119.5</v>
@@ -10695,7 +10695,7 @@
         <v>1379.0701</v>
       </c>
       <c r="BW20" t="n">
-        <v>1837.9999</v>
+        <v>1838.1</v>
       </c>
       <c r="BX20" t="n">
         <v>1669.7</v>
@@ -10704,7 +10704,7 @@
         <v>10</v>
       </c>
       <c r="BZ20" t="n">
-        <v>1889.6</v>
+        <v>1889.5</v>
       </c>
       <c r="CA20" t="n">
         <v>1658.3999</v>
@@ -10932,7 +10932,7 @@
         <v>91.938</v>
       </c>
       <c r="EX20" t="n">
-        <v>122.533325</v>
+        <v>122.54</v>
       </c>
       <c r="EY20" t="n">
         <v>111.31333</v>
@@ -10941,7 +10941,7 @@
         <v>0.6666666999999999</v>
       </c>
       <c r="FA20" t="n">
-        <v>125.973335</v>
+        <v>125.96667</v>
       </c>
       <c r="FB20" t="n">
         <v>110.55999</v>
@@ -11209,7 +11209,7 @@
         <v>1686.7</v>
       </c>
       <c r="BX21" t="n">
-        <v>1559.6001</v>
+        <v>1559.5</v>
       </c>
       <c r="BY21" t="n">
         <v>13</v>
@@ -11218,7 +11218,7 @@
         <v>1746.1001</v>
       </c>
       <c r="CA21" t="n">
-        <v>1563.7998</v>
+        <v>1563.8999</v>
       </c>
       <c r="CB21" t="n">
         <v>48.060284</v>
@@ -11446,7 +11446,7 @@
         <v>120.47857</v>
       </c>
       <c r="EY21" t="n">
-        <v>111.40001</v>
+        <v>111.39286</v>
       </c>
       <c r="EZ21" t="n">
         <v>0.9285714</v>
@@ -11455,7 +11455,7 @@
         <v>124.721436</v>
       </c>
       <c r="FB21" t="n">
-        <v>111.69999</v>
+        <v>111.70714</v>
       </c>
       <c r="FC21" t="n">
         <v>48.060284</v>
@@ -12228,7 +12228,7 @@
         <v>1664.3899</v>
       </c>
       <c r="BW23" t="n">
-        <v>1551.3</v>
+        <v>1551.2</v>
       </c>
       <c r="BX23" t="n">
         <v>1799.3002</v>
@@ -12237,7 +12237,7 @@
         <v>8</v>
       </c>
       <c r="BZ23" t="n">
-        <v>1714.9</v>
+        <v>1714.9999</v>
       </c>
       <c r="CA23" t="n">
         <v>1676.1</v>
@@ -12465,7 +12465,7 @@
         <v>110.95933</v>
       </c>
       <c r="EX23" t="n">
-        <v>103.420006</v>
+        <v>103.41333</v>
       </c>
       <c r="EY23" t="n">
         <v>119.95335</v>
@@ -12474,7 +12474,7 @@
         <v>0.53333336</v>
       </c>
       <c r="FA23" t="n">
-        <v>114.32667</v>
+        <v>114.33333</v>
       </c>
       <c r="FB23" t="n">
         <v>111.74</v>
